--- a/po_analysis_by_asin/B09QVPMGYV_po_data.xlsx
+++ b/po_analysis_by_asin/B09QVPMGYV_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,30 +498,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -533,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,22 +553,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09QVPMGYV_po_data.xlsx
+++ b/po_analysis_by_asin/B09QVPMGYV_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -551,6 +552,243 @@
       </c>
       <c r="B4" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-189.5107303698267</v>
+      </c>
+      <c r="D2" t="n">
+        <v>151.8685076515984</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-111.1244304905833</v>
+      </c>
+      <c r="D3" t="n">
+        <v>249.4285208879284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-103.1752117619223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>274.1672709188894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>103</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-87.6899618090756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>263.6955544330432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>124</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-70.5559745447587</v>
+      </c>
+      <c r="D6" t="n">
+        <v>297.9076461259442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>145</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-25.57687131490281</v>
+      </c>
+      <c r="D7" t="n">
+        <v>324.053235026794</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>166</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-14.14543585521915</v>
+      </c>
+      <c r="D8" t="n">
+        <v>342.34012808962</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>187</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.35228997665739</v>
+      </c>
+      <c r="D9" t="n">
+        <v>373.5167684266536</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.42695203672206</v>
+      </c>
+      <c r="D10" t="n">
+        <v>383.7198508724479</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>229</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47.46380378589409</v>
+      </c>
+      <c r="D11" t="n">
+        <v>411.4557161211555</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>250</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69.61609174111842</v>
+      </c>
+      <c r="D12" t="n">
+        <v>427.9368207720275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>271</v>
+      </c>
+      <c r="C13" t="n">
+        <v>91.55987673160946</v>
+      </c>
+      <c r="D13" t="n">
+        <v>451.8785989245304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>103.5175324082287</v>
+      </c>
+      <c r="D14" t="n">
+        <v>470.4337582004144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>313</v>
+      </c>
+      <c r="C15" t="n">
+        <v>134.0658270030061</v>
+      </c>
+      <c r="D15" t="n">
+        <v>491.9911093704498</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09QVPMGYV_po_data.xlsx
+++ b/po_analysis_by_asin/B09QVPMGYV_po_data.xlsx
@@ -565,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,16 +584,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -602,12 +592,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-189.5107303698267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>151.8685076515984</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -616,12 +600,6 @@
       <c r="B3" t="n">
         <v>61</v>
       </c>
-      <c r="C3" t="n">
-        <v>-111.1244304905833</v>
-      </c>
-      <c r="D3" t="n">
-        <v>249.4285208879284</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -630,12 +608,6 @@
       <c r="B4" t="n">
         <v>82</v>
       </c>
-      <c r="C4" t="n">
-        <v>-103.1752117619223</v>
-      </c>
-      <c r="D4" t="n">
-        <v>274.1672709188894</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -644,12 +616,6 @@
       <c r="B5" t="n">
         <v>103</v>
       </c>
-      <c r="C5" t="n">
-        <v>-87.6899618090756</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.6955544330432</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -658,12 +624,6 @@
       <c r="B6" t="n">
         <v>124</v>
       </c>
-      <c r="C6" t="n">
-        <v>-70.5559745447587</v>
-      </c>
-      <c r="D6" t="n">
-        <v>297.9076461259442</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -672,12 +632,6 @@
       <c r="B7" t="n">
         <v>145</v>
       </c>
-      <c r="C7" t="n">
-        <v>-25.57687131490281</v>
-      </c>
-      <c r="D7" t="n">
-        <v>324.053235026794</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -686,12 +640,6 @@
       <c r="B8" t="n">
         <v>166</v>
       </c>
-      <c r="C8" t="n">
-        <v>-14.14543585521915</v>
-      </c>
-      <c r="D8" t="n">
-        <v>342.34012808962</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -700,12 +648,6 @@
       <c r="B9" t="n">
         <v>187</v>
       </c>
-      <c r="C9" t="n">
-        <v>20.35228997665739</v>
-      </c>
-      <c r="D9" t="n">
-        <v>373.5167684266536</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -714,12 +656,6 @@
       <c r="B10" t="n">
         <v>208</v>
       </c>
-      <c r="C10" t="n">
-        <v>23.42695203672206</v>
-      </c>
-      <c r="D10" t="n">
-        <v>383.7198508724479</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -728,12 +664,6 @@
       <c r="B11" t="n">
         <v>229</v>
       </c>
-      <c r="C11" t="n">
-        <v>47.46380378589409</v>
-      </c>
-      <c r="D11" t="n">
-        <v>411.4557161211555</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -742,12 +672,6 @@
       <c r="B12" t="n">
         <v>250</v>
       </c>
-      <c r="C12" t="n">
-        <v>69.61609174111842</v>
-      </c>
-      <c r="D12" t="n">
-        <v>427.9368207720275</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -756,12 +680,6 @@
       <c r="B13" t="n">
         <v>271</v>
       </c>
-      <c r="C13" t="n">
-        <v>91.55987673160946</v>
-      </c>
-      <c r="D13" t="n">
-        <v>451.8785989245304</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -770,12 +688,6 @@
       <c r="B14" t="n">
         <v>292</v>
       </c>
-      <c r="C14" t="n">
-        <v>103.5175324082287</v>
-      </c>
-      <c r="D14" t="n">
-        <v>470.4337582004144</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -783,12 +695,6 @@
       </c>
       <c r="B15" t="n">
         <v>313</v>
-      </c>
-      <c r="C15" t="n">
-        <v>134.0658270030061</v>
-      </c>
-      <c r="D15" t="n">
-        <v>491.9911093704498</v>
       </c>
     </row>
   </sheetData>
